--- a/encuestaMP.xlsx
+++ b/encuestaMP.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="911">
   <si>
     <t>Encuesta</t>
   </si>
@@ -744,9 +744,6 @@
   </si>
   <si>
     <t>-71.0986634</t>
-  </si>
-  <si>
-    <t>Pradera</t>
   </si>
   <si>
     <t>Lo Ovalle</t>
@@ -2771,7 +2768,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3374,7 +3371,7 @@
         <v>216</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3382,22 +3379,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>216</v>
@@ -3411,7 +3408,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>212</v>
@@ -3421,10 +3418,10 @@
         <v>213</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>216</v>
@@ -3438,7 +3435,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>212</v>
@@ -3448,10 +3445,10 @@
         <v>213</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>222</v>
@@ -3465,7 +3462,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>212</v>
@@ -3475,10 +3472,10 @@
         <v>213</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>222</v>
@@ -3495,7 +3492,7 @@
         <v>211</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>226</v>
@@ -3504,10 +3501,10 @@
         <v>213</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>222</v>
@@ -3521,7 +3518,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>225</v>
@@ -3533,10 +3530,10 @@
         <v>213</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>216</v>
@@ -3550,7 +3547,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>239</v>
@@ -3562,10 +3559,10 @@
         <v>213</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>216</v>
@@ -3579,22 +3576,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>216</v>
@@ -3608,7 +3605,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>239</v>
@@ -3620,24 +3617,24 @@
         <v>213</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>239</v>
@@ -3649,16 +3646,16 @@
         <v>213</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3666,7 +3663,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>212</v>
@@ -3676,10 +3673,10 @@
         <v>213</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>216</v>
@@ -3693,7 +3690,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>212</v>
@@ -3703,10 +3700,10 @@
         <v>213</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>222</v>
@@ -3720,7 +3717,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>212</v>
@@ -3730,26 +3727,26 @@
         <v>213</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>212</v>
@@ -3759,16 +3756,16 @@
         <v>213</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="G22" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3776,7 +3773,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>212</v>
@@ -3786,16 +3783,16 @@
         <v>213</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="G23" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -3803,7 +3800,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>212</v>
@@ -3813,16 +3810,16 @@
         <v>213</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="G24" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3830,22 +3827,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>216</v>
@@ -3859,7 +3856,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>212</v>
@@ -3869,16 +3866,16 @@
         <v>213</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>218</v>
@@ -3888,7 +3885,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>212</v>
@@ -3898,24 +3895,24 @@
         <v>213</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>225</v>
@@ -3927,26 +3924,26 @@
         <v>213</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>225</v>
@@ -3958,10 +3955,10 @@
         <v>213</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>216</v>
@@ -3975,7 +3972,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>225</v>
@@ -3987,24 +3984,24 @@
         <v>213</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>225</v>
@@ -4016,16 +4013,16 @@
         <v>213</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="G31" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -4033,7 +4030,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>212</v>
@@ -4043,10 +4040,10 @@
         <v>213</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>216</v>
@@ -4055,35 +4052,35 @@
         <v>229</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -4091,7 +4088,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>212</v>
@@ -4101,10 +4098,10 @@
         <v>213</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>222</v>
@@ -4118,7 +4115,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>239</v>
@@ -4130,10 +4127,10 @@
         <v>213</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>216</v>
@@ -4149,7 +4146,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>239</v>
@@ -4161,10 +4158,10 @@
         <v>213</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>216</v>
@@ -4173,14 +4170,14 @@
         <v>229</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>212</v>
@@ -4190,16 +4187,16 @@
         <v>213</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="G37" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -4207,7 +4204,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>239</v>
@@ -4219,10 +4216,10 @@
         <v>213</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>216</v>
@@ -4236,7 +4233,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>212</v>
@@ -4246,10 +4243,10 @@
         <v>213</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>222</v>
@@ -4263,7 +4260,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>212</v>
@@ -4273,10 +4270,10 @@
         <v>213</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>222</v>
@@ -4290,7 +4287,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>212</v>
@@ -4300,10 +4297,10 @@
         <v>213</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>216</v>
@@ -4317,7 +4314,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>212</v>
@@ -4327,10 +4324,10 @@
         <v>213</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>222</v>
@@ -4339,14 +4336,14 @@
         <v>217</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>212</v>
@@ -4356,10 +4353,10 @@
         <v>213</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>222</v>
@@ -4373,7 +4370,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>239</v>
@@ -4385,10 +4382,10 @@
         <v>213</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>222</v>
@@ -4397,14 +4394,14 @@
         <v>217</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>225</v>
@@ -4416,10 +4413,10 @@
         <v>213</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>216</v>
@@ -4433,7 +4430,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>219</v>
@@ -4443,26 +4440,26 @@
         <v>213</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>239</v>
@@ -4474,10 +4471,10 @@
         <v>213</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>216</v>
@@ -4491,7 +4488,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>212</v>
@@ -4501,10 +4498,10 @@
         <v>213</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>222</v>
@@ -4520,7 +4517,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>212</v>
@@ -4530,26 +4527,26 @@
         <v>213</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K49" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>212</v>
@@ -4559,10 +4556,10 @@
         <v>213</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>216</v>
@@ -4576,7 +4573,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>212</v>
@@ -4586,10 +4583,10 @@
         <v>213</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>222</v>
@@ -4603,7 +4600,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>212</v>
@@ -4613,16 +4610,16 @@
         <v>213</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="G52" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -4630,10 +4627,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>226</v>
@@ -4642,10 +4639,10 @@
         <v>213</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>216</v>
@@ -4659,7 +4656,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>239</v>
@@ -4671,10 +4668,10 @@
         <v>213</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>216</v>
@@ -4688,7 +4685,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>212</v>
@@ -4698,10 +4695,10 @@
         <v>213</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>222</v>
@@ -4715,7 +4712,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>239</v>
@@ -4727,11 +4724,11 @@
         <v>213</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="G56" s="1" t="s">
         <v>216</v>
       </c>
@@ -4739,14 +4736,14 @@
         <v>217</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>239</v>
@@ -4758,16 +4755,16 @@
         <v>213</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="G57" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -4775,10 +4772,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>226</v>
@@ -4787,10 +4784,10 @@
         <v>213</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>216</v>
@@ -4804,7 +4801,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>212</v>
@@ -4814,10 +4811,10 @@
         <v>213</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>216</v>
@@ -4833,22 +4830,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>216</v>
@@ -4862,7 +4859,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>239</v>
@@ -4874,10 +4871,10 @@
         <v>213</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>216</v>
@@ -4893,7 +4890,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>239</v>
@@ -4905,16 +4902,16 @@
         <v>213</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>218</v>
@@ -4924,7 +4921,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>239</v>
@@ -4936,10 +4933,10 @@
         <v>213</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>216</v>
@@ -4948,14 +4945,14 @@
         <v>229</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>219</v>
@@ -4965,10 +4962,10 @@
         <v>213</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>216</v>
@@ -4982,22 +4979,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>216</v>
@@ -5011,7 +5008,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>212</v>
@@ -5021,10 +5018,10 @@
         <v>213</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>222</v>
@@ -5038,7 +5035,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>212</v>
@@ -5048,10 +5045,10 @@
         <v>213</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>216</v>
@@ -5065,7 +5062,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>225</v>
@@ -5077,10 +5074,10 @@
         <v>213</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>216</v>
@@ -5096,28 +5093,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>218</v>
@@ -5127,7 +5124,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>239</v>
@@ -5139,10 +5136,10 @@
         <v>213</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>216</v>
@@ -5156,7 +5153,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>239</v>
@@ -5168,10 +5165,10 @@
         <v>213</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>216</v>
@@ -5185,7 +5182,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>239</v>
@@ -5197,10 +5194,10 @@
         <v>213</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>216</v>
@@ -5214,7 +5211,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>212</v>
@@ -5224,10 +5221,10 @@
         <v>213</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>222</v>
@@ -5241,7 +5238,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>225</v>
@@ -5253,13 +5250,13 @@
         <v>213</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="G74" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>217</v>
@@ -5272,10 +5269,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>226</v>
@@ -5284,10 +5281,10 @@
         <v>213</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>216</v>
@@ -5301,7 +5298,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>239</v>
@@ -5313,11 +5310,11 @@
         <v>213</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="G76" s="1" t="s">
         <v>216</v>
       </c>
@@ -5325,14 +5322,14 @@
         <v>217</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>239</v>
@@ -5344,10 +5341,10 @@
         <v>213</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>216</v>
@@ -5361,7 +5358,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>239</v>
@@ -5373,24 +5370,24 @@
         <v>213</v>
       </c>
       <c r="E78" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>239</v>
@@ -5402,10 +5399,10 @@
         <v>213</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>216</v>
@@ -5419,7 +5416,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>239</v>
@@ -5431,11 +5428,11 @@
         <v>213</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="G80" s="1" t="s">
         <v>216</v>
       </c>
@@ -5443,14 +5440,14 @@
         <v>217</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>239</v>
@@ -5462,16 +5459,16 @@
         <v>213</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -5479,7 +5476,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>212</v>
@@ -5489,10 +5486,10 @@
         <v>213</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>216</v>
@@ -5506,7 +5503,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>212</v>
@@ -5516,24 +5513,24 @@
         <v>213</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>219</v>
@@ -5543,10 +5540,10 @@
         <v>213</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>216</v>
@@ -5560,7 +5557,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>212</v>
@@ -5570,10 +5567,10 @@
         <v>213</v>
       </c>
       <c r="E85" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>222</v>
@@ -5587,7 +5584,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>219</v>
@@ -5597,26 +5594,26 @@
         <v>213</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I86" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>212</v>
@@ -5626,80 +5623,80 @@
         <v>213</v>
       </c>
       <c r="E87" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="G87" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>217</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>212</v>
@@ -5709,10 +5706,10 @@
         <v>213</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>222</v>
@@ -5726,20 +5723,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>216</v>
@@ -5753,7 +5750,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>239</v>
@@ -5765,10 +5762,10 @@
         <v>213</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>216</v>
@@ -5782,7 +5779,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>239</v>
@@ -5794,24 +5791,24 @@
         <v>213</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>239</v>
@@ -5823,16 +5820,16 @@
         <v>213</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="G94" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -5840,7 +5837,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>239</v>
@@ -5852,10 +5849,10 @@
         <v>213</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>216</v>
@@ -5869,7 +5866,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>239</v>
@@ -5881,24 +5878,24 @@
         <v>213</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>239</v>
@@ -5910,10 +5907,10 @@
         <v>213</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>222</v>
@@ -5922,14 +5919,14 @@
         <v>229</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>239</v>
@@ -5941,11 +5938,11 @@
         <v>213</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="G98" s="1" t="s">
         <v>216</v>
       </c>
@@ -5953,29 +5950,29 @@
         <v>217</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>216</v>
@@ -5989,7 +5986,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>239</v>
@@ -6001,10 +5998,10 @@
         <v>213</v>
       </c>
       <c r="E100" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>216</v>
@@ -6018,7 +6015,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>239</v>
@@ -6030,16 +6027,16 @@
         <v>213</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="G101" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -6047,7 +6044,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>239</v>
@@ -6059,10 +6056,10 @@
         <v>213</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>222</v>
@@ -6071,14 +6068,14 @@
         <v>229</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>239</v>
@@ -6090,10 +6087,10 @@
         <v>213</v>
       </c>
       <c r="E103" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>216</v>
@@ -6107,7 +6104,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>239</v>
@@ -6119,10 +6116,10 @@
         <v>213</v>
       </c>
       <c r="E104" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>216</v>
@@ -6136,7 +6133,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>225</v>
@@ -6148,10 +6145,10 @@
         <v>213</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>216</v>
@@ -6165,7 +6162,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>225</v>
@@ -6177,10 +6174,10 @@
         <v>213</v>
       </c>
       <c r="E106" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>216</v>
@@ -6189,14 +6186,14 @@
         <v>229</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>239</v>
@@ -6208,26 +6205,26 @@
         <v>213</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="G107" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>239</v>
@@ -6239,28 +6236,28 @@
         <v>213</v>
       </c>
       <c r="E108" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="G108" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J108" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="K108" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>239</v>
@@ -6272,10 +6269,10 @@
         <v>213</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>216</v>
@@ -6289,7 +6286,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>239</v>
@@ -6301,10 +6298,10 @@
         <v>213</v>
       </c>
       <c r="E110" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>216</v>
@@ -6318,7 +6315,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>239</v>
@@ -6330,11 +6327,11 @@
         <v>213</v>
       </c>
       <c r="E111" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="G111" s="1" t="s">
         <v>216</v>
       </c>
@@ -6342,14 +6339,14 @@
         <v>217</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>239</v>
@@ -6361,39 +6358,39 @@
         <v>213</v>
       </c>
       <c r="E112" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E113" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>216</v>
@@ -6407,7 +6404,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>225</v>
@@ -6419,26 +6416,26 @@
         <v>213</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="G114" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I114" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>239</v>
@@ -6450,24 +6447,24 @@
         <v>213</v>
       </c>
       <c r="E115" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K115" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>239</v>
@@ -6479,10 +6476,10 @@
         <v>213</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>216</v>
@@ -6491,14 +6488,14 @@
         <v>229</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>239</v>
@@ -6510,26 +6507,26 @@
         <v>213</v>
       </c>
       <c r="E117" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="G117" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I117" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>212</v>
@@ -6539,26 +6536,26 @@
         <v>213</v>
       </c>
       <c r="E118" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="G118" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I118" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>225</v>
@@ -6570,29 +6567,29 @@
         <v>213</v>
       </c>
       <c r="E119" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>226</v>
@@ -6601,10 +6598,10 @@
         <v>213</v>
       </c>
       <c r="E120" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>216</v>
@@ -6620,7 +6617,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>212</v>
@@ -6630,16 +6627,16 @@
         <v>213</v>
       </c>
       <c r="E121" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="G121" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>218</v>
@@ -6649,7 +6646,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>239</v>
@@ -6661,24 +6658,24 @@
         <v>213</v>
       </c>
       <c r="E122" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>212</v>
@@ -6688,10 +6685,10 @@
         <v>213</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>222</v>
@@ -6705,7 +6702,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>212</v>
@@ -6715,16 +6712,16 @@
         <v>213</v>
       </c>
       <c r="E124" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="G124" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -6732,7 +6729,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>212</v>
@@ -6742,16 +6739,16 @@
         <v>213</v>
       </c>
       <c r="E125" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="G125" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -6759,7 +6756,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>212</v>
@@ -6769,10 +6766,10 @@
         <v>213</v>
       </c>
       <c r="E126" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>216</v>
@@ -6786,7 +6783,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>225</v>
@@ -6798,10 +6795,10 @@
         <v>213</v>
       </c>
       <c r="E127" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>216</v>
@@ -6815,7 +6812,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>225</v>
@@ -6827,16 +6824,16 @@
         <v>213</v>
       </c>
       <c r="E128" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>516</v>
-      </c>
       <c r="G128" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -6844,10 +6841,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>226</v>
@@ -6856,26 +6853,26 @@
         <v>213</v>
       </c>
       <c r="E129" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="G129" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>239</v>
@@ -6887,26 +6884,26 @@
         <v>213</v>
       </c>
       <c r="E130" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H130" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I130" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>239</v>
@@ -6918,10 +6915,10 @@
         <v>213</v>
       </c>
       <c r="E131" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>216</v>
@@ -6935,7 +6932,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>225</v>
@@ -6947,26 +6944,26 @@
         <v>213</v>
       </c>
       <c r="E132" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="G132" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>225</v>
@@ -6978,10 +6975,10 @@
         <v>213</v>
       </c>
       <c r="E133" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>222</v>
@@ -6990,17 +6987,17 @@
         <v>229</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>226</v>
@@ -7009,10 +7006,10 @@
         <v>213</v>
       </c>
       <c r="E134" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>216</v>
@@ -7021,14 +7018,14 @@
         <v>229</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>212</v>
@@ -7038,10 +7035,10 @@
         <v>213</v>
       </c>
       <c r="E135" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>222</v>
@@ -7055,7 +7052,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>225</v>
@@ -7067,10 +7064,10 @@
         <v>213</v>
       </c>
       <c r="E136" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>216</v>
@@ -7084,7 +7081,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>239</v>
@@ -7096,10 +7093,10 @@
         <v>213</v>
       </c>
       <c r="E137" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>216</v>
@@ -7113,7 +7110,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>225</v>
@@ -7125,10 +7122,10 @@
         <v>213</v>
       </c>
       <c r="E138" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>222</v>
@@ -7137,14 +7134,14 @@
         <v>229</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>239</v>
@@ -7156,10 +7153,10 @@
         <v>213</v>
       </c>
       <c r="E139" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>541</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>216</v>
@@ -7168,14 +7165,14 @@
         <v>229</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>225</v>
@@ -7187,24 +7184,24 @@
         <v>213</v>
       </c>
       <c r="E140" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>239</v>
@@ -7216,10 +7213,10 @@
         <v>213</v>
       </c>
       <c r="E141" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>222</v>
@@ -7228,35 +7225,35 @@
         <v>217</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E142" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="G142" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H142" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -7264,7 +7261,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>239</v>
@@ -7276,11 +7273,11 @@
         <v>213</v>
       </c>
       <c r="E143" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>551</v>
-      </c>
       <c r="G143" s="1" t="s">
         <v>216</v>
       </c>
@@ -7288,14 +7285,14 @@
         <v>217</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>239</v>
@@ -7307,27 +7304,27 @@
         <v>213</v>
       </c>
       <c r="E144" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>226</v>
@@ -7336,24 +7333,24 @@
         <v>213</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H145" s="1"/>
       <c r="I145" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>219</v>
@@ -7363,10 +7360,10 @@
         <v>213</v>
       </c>
       <c r="E146" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>216</v>
@@ -7380,22 +7377,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E147" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>216</v>
@@ -7409,22 +7406,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E148" s="1" t="s">
+      <c r="F148" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>216</v>
@@ -7438,10 +7435,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>226</v>
@@ -7450,10 +7447,10 @@
         <v>213</v>
       </c>
       <c r="E149" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>216</v>
@@ -7467,10 +7464,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>226</v>
@@ -7479,16 +7476,16 @@
         <v>213</v>
       </c>
       <c r="E150" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>566</v>
-      </c>
       <c r="G150" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -7496,10 +7493,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>226</v>
@@ -7508,16 +7505,16 @@
         <v>213</v>
       </c>
       <c r="E151" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="G151" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>218</v>
@@ -7527,7 +7524,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>212</v>
@@ -7537,10 +7534,10 @@
         <v>213</v>
       </c>
       <c r="E152" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>222</v>
@@ -7554,7 +7551,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>219</v>
@@ -7564,16 +7561,16 @@
         <v>213</v>
       </c>
       <c r="E153" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="G153" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H153" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -7581,7 +7578,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>212</v>
@@ -7591,10 +7588,10 @@
         <v>213</v>
       </c>
       <c r="E154" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>216</v>
@@ -7608,7 +7605,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>212</v>
@@ -7618,10 +7615,10 @@
         <v>213</v>
       </c>
       <c r="E155" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>222</v>
@@ -7635,10 +7632,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>226</v>
@@ -7647,16 +7644,16 @@
         <v>213</v>
       </c>
       <c r="E156" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>579</v>
-      </c>
       <c r="G156" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
@@ -7664,10 +7661,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>226</v>
@@ -7676,16 +7673,16 @@
         <v>213</v>
       </c>
       <c r="E157" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="G157" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H157" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -7693,7 +7690,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>212</v>
@@ -7703,10 +7700,10 @@
         <v>213</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>222</v>
@@ -7720,10 +7717,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>226</v>
@@ -7732,26 +7729,26 @@
         <v>213</v>
       </c>
       <c r="E159" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="G159" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I159" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>212</v>
@@ -7761,10 +7758,10 @@
         <v>213</v>
       </c>
       <c r="E160" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>216</v>
@@ -7778,20 +7775,20 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E161" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>222</v>
@@ -7805,7 +7802,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>212</v>
@@ -7815,10 +7812,10 @@
         <v>213</v>
       </c>
       <c r="E162" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>216</v>
@@ -7832,10 +7829,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>226</v>
@@ -7844,16 +7841,16 @@
         <v>213</v>
       </c>
       <c r="E163" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G163" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -7861,7 +7858,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>212</v>
@@ -7871,13 +7868,13 @@
         <v>213</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="G164" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>599</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>217</v>
@@ -7890,10 +7887,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>226</v>
@@ -7902,10 +7899,10 @@
         <v>213</v>
       </c>
       <c r="E165" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>216</v>
@@ -7919,7 +7916,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>225</v>
@@ -7931,16 +7928,16 @@
         <v>213</v>
       </c>
       <c r="E166" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="G166" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I166" s="1" t="s">
         <v>218</v>
@@ -7950,7 +7947,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>212</v>
@@ -7960,10 +7957,10 @@
         <v>213</v>
       </c>
       <c r="E167" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>605</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>222</v>
@@ -7977,22 +7974,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E168" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>216</v>
@@ -8018,10 +8015,10 @@
         <v>213</v>
       </c>
       <c r="E169" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>222</v>
@@ -8030,14 +8027,14 @@
         <v>229</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>239</v>
@@ -8049,17 +8046,17 @@
         <v>213</v>
       </c>
       <c r="E170" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
@@ -8078,26 +8075,26 @@
         <v>213</v>
       </c>
       <c r="E171" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>615</v>
-      </c>
       <c r="G171" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>225</v>
@@ -8109,24 +8106,24 @@
         <v>213</v>
       </c>
       <c r="E172" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>239</v>
@@ -8138,16 +8135,16 @@
         <v>213</v>
       </c>
       <c r="E173" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="G173" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -8167,11 +8164,11 @@
         <v>213</v>
       </c>
       <c r="E174" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>622</v>
-      </c>
       <c r="G174" s="1" t="s">
         <v>216</v>
       </c>
@@ -8179,7 +8176,7 @@
         <v>217</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
@@ -8198,10 +8195,10 @@
         <v>213</v>
       </c>
       <c r="E175" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F175" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>216</v>
@@ -8227,19 +8224,19 @@
         <v>213</v>
       </c>
       <c r="E176" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="F176" s="1" t="s">
+      <c r="G176" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I176" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
@@ -8258,10 +8255,10 @@
         <v>213</v>
       </c>
       <c r="E177" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F177" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>216</v>
@@ -8275,22 +8272,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E178" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>216</v>
@@ -8304,22 +8301,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E179" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>216</v>
@@ -8333,22 +8330,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E180" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>636</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>216</v>
@@ -8362,22 +8359,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E181" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>216</v>
@@ -8391,7 +8388,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>239</v>
@@ -8403,10 +8400,10 @@
         <v>213</v>
       </c>
       <c r="E182" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>641</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>216</v>
@@ -8423,19 +8420,19 @@
         <v>234</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E183" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>216</v>
@@ -8449,7 +8446,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>212</v>
@@ -8459,16 +8456,16 @@
         <v>213</v>
       </c>
       <c r="E184" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="F184" s="1" t="s">
+      <c r="G184" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H184" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -8482,16 +8479,16 @@
         <v>239</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>222</v>
@@ -8500,7 +8497,7 @@
         <v>217</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
@@ -8519,10 +8516,10 @@
         <v>213</v>
       </c>
       <c r="E186" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>216</v>
@@ -8550,17 +8547,17 @@
         <v>213</v>
       </c>
       <c r="E187" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F187" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H187" s="1"/>
       <c r="I187" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
@@ -8579,10 +8576,10 @@
         <v>213</v>
       </c>
       <c r="E188" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="F188" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>216</v>
@@ -8599,7 +8596,7 @@
         <v>211</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>226</v>
@@ -8608,26 +8605,26 @@
         <v>213</v>
       </c>
       <c r="E189" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F189" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="G189" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>239</v>
@@ -8639,16 +8636,16 @@
         <v>213</v>
       </c>
       <c r="E190" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>659</v>
-      </c>
       <c r="G190" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -8656,7 +8653,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>239</v>
@@ -8668,10 +8665,10 @@
         <v>213</v>
       </c>
       <c r="E191" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F191" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>216</v>
@@ -8685,7 +8682,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>239</v>
@@ -8697,16 +8694,16 @@
         <v>213</v>
       </c>
       <c r="E192" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>663</v>
-      </c>
       <c r="G192" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -8726,24 +8723,24 @@
         <v>213</v>
       </c>
       <c r="E193" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F193" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H193" s="1"/>
       <c r="I193" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>239</v>
@@ -8755,16 +8752,16 @@
         <v>213</v>
       </c>
       <c r="E194" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F194" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>663</v>
-      </c>
       <c r="G194" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -8784,24 +8781,24 @@
         <v>213</v>
       </c>
       <c r="E195" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F195" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H195" s="1"/>
       <c r="I195" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>239</v>
@@ -8813,10 +8810,10 @@
         <v>213</v>
       </c>
       <c r="E196" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>663</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>216</v>
@@ -8842,16 +8839,16 @@
         <v>213</v>
       </c>
       <c r="E197" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F197" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>667</v>
-      </c>
       <c r="G197" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -8871,19 +8868,19 @@
         <v>213</v>
       </c>
       <c r="E198" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>669</v>
-      </c>
       <c r="G198" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
@@ -8902,16 +8899,16 @@
         <v>213</v>
       </c>
       <c r="E199" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F199" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="F199" s="1" t="s">
-        <v>671</v>
-      </c>
       <c r="G199" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -8931,10 +8928,10 @@
         <v>213</v>
       </c>
       <c r="E200" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F200" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>222</v>
@@ -8960,16 +8957,16 @@
         <v>213</v>
       </c>
       <c r="E201" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F201" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="F201" s="1" t="s">
-        <v>675</v>
-      </c>
       <c r="G201" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -8989,19 +8986,19 @@
         <v>213</v>
       </c>
       <c r="E202" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="F202" s="1" t="s">
+      <c r="G202" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I202" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H202" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I202" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
@@ -9014,16 +9011,16 @@
         <v>225</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E203" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="F203" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>680</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>216</v>
@@ -9049,10 +9046,10 @@
         <v>213</v>
       </c>
       <c r="E204" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F204" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>216</v>
@@ -9078,16 +9075,16 @@
         <v>213</v>
       </c>
       <c r="E205" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F205" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="F205" s="1" t="s">
-        <v>684</v>
-      </c>
       <c r="G205" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
@@ -9107,10 +9104,10 @@
         <v>213</v>
       </c>
       <c r="E206" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="F206" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>216</v>
@@ -9127,28 +9124,28 @@
         <v>211</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E207" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F207" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="F207" s="1" t="s">
+      <c r="G207" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I207" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I207" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
@@ -9158,19 +9155,19 @@
         <v>211</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E208" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>216</v>
@@ -9189,7 +9186,7 @@
         <v>211</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>226</v>
@@ -9198,10 +9195,10 @@
         <v>213</v>
       </c>
       <c r="E209" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F209" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>693</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>216</v>
@@ -9227,17 +9224,17 @@
         <v>213</v>
       </c>
       <c r="E210" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F210" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>695</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H210" s="1"/>
       <c r="I210" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
@@ -9256,19 +9253,19 @@
         <v>213</v>
       </c>
       <c r="E211" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F211" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="F211" s="1" t="s">
+      <c r="G211" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I211" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H211" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I211" s="1" t="s">
-        <v>698</v>
       </c>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
@@ -9278,7 +9275,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>226</v>
@@ -9287,10 +9284,10 @@
         <v>213</v>
       </c>
       <c r="E212" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F212" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>216</v>
@@ -9299,7 +9296,7 @@
         <v>229</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
@@ -9309,7 +9306,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>226</v>
@@ -9318,10 +9315,10 @@
         <v>213</v>
       </c>
       <c r="E213" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F213" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>216</v>
@@ -9345,10 +9342,10 @@
         <v>213</v>
       </c>
       <c r="E214" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>703</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>704</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>222</v>
@@ -9368,17 +9365,17 @@
         <v>225</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E215" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F215" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>706</v>
-      </c>
       <c r="G215" s="1" t="s">
         <v>216</v>
       </c>
@@ -9386,7 +9383,7 @@
         <v>217</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
@@ -9399,16 +9396,16 @@
         <v>225</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E216" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>216</v>
@@ -9422,7 +9419,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>239</v>
@@ -9434,10 +9431,10 @@
         <v>213</v>
       </c>
       <c r="E217" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F217" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>216</v>
@@ -9453,7 +9450,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>239</v>
@@ -9465,10 +9462,10 @@
         <v>213</v>
       </c>
       <c r="E218" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F218" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>216</v>
@@ -9484,7 +9481,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>239</v>
@@ -9496,10 +9493,10 @@
         <v>213</v>
       </c>
       <c r="E219" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F219" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>715</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>222</v>
@@ -9513,7 +9510,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>239</v>
@@ -9525,10 +9522,10 @@
         <v>213</v>
       </c>
       <c r="E220" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F220" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>717</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>216</v>
@@ -9542,22 +9539,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E221" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F221" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>719</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>216</v>
@@ -9571,22 +9568,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E222" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F222" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>722</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>216</v>
@@ -9600,7 +9597,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>239</v>
@@ -9612,10 +9609,10 @@
         <v>213</v>
       </c>
       <c r="E223" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="F223" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>724</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>216</v>
@@ -9629,7 +9626,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>239</v>
@@ -9641,41 +9638,41 @@
         <v>213</v>
       </c>
       <c r="E224" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F224" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="F224" s="1" t="s">
-        <v>726</v>
-      </c>
       <c r="G224" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E225" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F225" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>728</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>216</v>
@@ -9689,28 +9686,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E226" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="F226" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>730</v>
-      </c>
       <c r="G226" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
@@ -9718,7 +9715,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>239</v>
@@ -9730,10 +9727,10 @@
         <v>213</v>
       </c>
       <c r="E227" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F227" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>732</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>216</v>
@@ -9749,7 +9746,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>212</v>
@@ -9759,10 +9756,10 @@
         <v>213</v>
       </c>
       <c r="E228" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>216</v>
@@ -9778,7 +9775,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>212</v>
@@ -9788,10 +9785,10 @@
         <v>213</v>
       </c>
       <c r="E229" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F229" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>736</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>222</v>
@@ -9805,7 +9802,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>239</v>
@@ -9817,10 +9814,10 @@
         <v>213</v>
       </c>
       <c r="E230" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="F230" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>738</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>216</v>
@@ -9830,34 +9827,34 @@
       </c>
       <c r="I230" s="1"/>
       <c r="J230" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K230" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E231" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F231" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="F231" s="1" t="s">
-        <v>741</v>
-      </c>
       <c r="G231" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
@@ -9865,7 +9862,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>225</v>
@@ -9877,24 +9874,24 @@
         <v>213</v>
       </c>
       <c r="E232" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F232" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>743</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H232" s="1"/>
       <c r="I232" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>239</v>
@@ -9906,10 +9903,10 @@
         <v>213</v>
       </c>
       <c r="E233" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="F233" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>745</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>222</v>
@@ -9918,7 +9915,7 @@
         <v>217</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -9928,7 +9925,7 @@
         <v>211</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>226</v>
@@ -9937,11 +9934,11 @@
         <v>213</v>
       </c>
       <c r="E234" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F234" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="G234" s="1" t="s">
         <v>216</v>
       </c>
@@ -9949,7 +9946,7 @@
         <v>217</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -9959,7 +9956,7 @@
         <v>211</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>226</v>
@@ -9968,10 +9965,10 @@
         <v>213</v>
       </c>
       <c r="E235" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="F235" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>216</v>
@@ -9983,28 +9980,28 @@
         <v>218</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K235" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E236" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F236" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>752</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>216</v>
@@ -10018,7 +10015,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>239</v>
@@ -10030,10 +10027,10 @@
         <v>213</v>
       </c>
       <c r="E237" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F237" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>216</v>
@@ -10047,7 +10044,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>239</v>
@@ -10059,16 +10056,16 @@
         <v>213</v>
       </c>
       <c r="E238" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="F238" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="F238" s="1" t="s">
-        <v>756</v>
-      </c>
       <c r="G238" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
@@ -10076,10 +10073,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>226</v>
@@ -10088,10 +10085,10 @@
         <v>213</v>
       </c>
       <c r="E239" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F239" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>758</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>222</v>
@@ -10100,29 +10097,29 @@
         <v>229</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E240" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F240" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>760</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>216</v>
@@ -10142,22 +10139,22 @@
         <v>239</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E241" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="F241" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="F241" s="1" t="s">
-        <v>762</v>
-      </c>
       <c r="G241" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
@@ -10165,7 +10162,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>239</v>
@@ -10177,10 +10174,10 @@
         <v>213</v>
       </c>
       <c r="E242" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F242" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="F242" s="1" t="s">
-        <v>765</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>222</v>
@@ -10194,7 +10191,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>239</v>
@@ -10206,24 +10203,24 @@
         <v>213</v>
       </c>
       <c r="E243" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F243" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H243" s="1"/>
       <c r="I243" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>239</v>
@@ -10235,10 +10232,10 @@
         <v>213</v>
       </c>
       <c r="E244" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="F244" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>216</v>
@@ -10252,7 +10249,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>212</v>
@@ -10262,10 +10259,10 @@
         <v>213</v>
       </c>
       <c r="E245" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F245" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>216</v>
@@ -10279,38 +10276,38 @@
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E246" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="F246" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="F246" s="1" t="s">
-        <v>774</v>
-      </c>
       <c r="G246" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>225</v>
@@ -10322,26 +10319,26 @@
         <v>213</v>
       </c>
       <c r="E247" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F247" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="F247" s="1" t="s">
-        <v>776</v>
-      </c>
       <c r="G247" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>212</v>
@@ -10351,11 +10348,11 @@
         <v>213</v>
       </c>
       <c r="E248" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="F248" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="F248" s="1" t="s">
-        <v>778</v>
-      </c>
       <c r="G248" s="1" t="s">
         <v>216</v>
       </c>
@@ -10363,14 +10360,14 @@
         <v>217</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>239</v>
@@ -10382,26 +10379,26 @@
         <v>213</v>
       </c>
       <c r="E249" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="F249" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="F249" s="1" t="s">
+      <c r="G249" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I249" s="1" t="s">
         <v>780</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H249" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I249" s="1" t="s">
-        <v>781</v>
       </c>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>239</v>
@@ -10413,10 +10410,10 @@
         <v>213</v>
       </c>
       <c r="E250" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F250" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>783</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>216</v>
@@ -10430,23 +10427,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E251" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F251" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="F251" s="1" t="s">
-        <v>785</v>
-      </c>
       <c r="G251" s="1" t="s">
         <v>216</v>
       </c>
@@ -10454,14 +10451,14 @@
         <v>217</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>239</v>
@@ -10473,10 +10470,10 @@
         <v>213</v>
       </c>
       <c r="E252" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="F252" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>787</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>216</v>
@@ -10490,10 +10487,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>226</v>
@@ -10502,26 +10499,26 @@
         <v>213</v>
       </c>
       <c r="E253" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="F253" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="F253" s="1" t="s">
+      <c r="G253" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I253" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="G253" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H253" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I253" s="1" t="s">
-        <v>790</v>
       </c>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>212</v>
@@ -10531,10 +10528,10 @@
         <v>213</v>
       </c>
       <c r="E254" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F254" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>792</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>216</v>
@@ -10548,7 +10545,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>212</v>
@@ -10558,45 +10555,45 @@
         <v>213</v>
       </c>
       <c r="E255" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="F255" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>794</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H255" s="1"/>
       <c r="I255" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E256" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F256" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="F256" s="1" t="s">
-        <v>797</v>
-      </c>
       <c r="G256" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
@@ -10604,7 +10601,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>225</v>
@@ -10616,10 +10613,10 @@
         <v>213</v>
       </c>
       <c r="E257" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F257" s="1" t="s">
         <v>798</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>799</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>216</v>
@@ -10636,7 +10633,7 @@
         <v>211</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>226</v>
@@ -10645,10 +10642,10 @@
         <v>213</v>
       </c>
       <c r="E258" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="F258" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>801</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>216</v>
@@ -10674,10 +10671,10 @@
         <v>213</v>
       </c>
       <c r="E259" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F259" s="1" t="s">
         <v>802</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>803</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>216</v>
@@ -10703,10 +10700,10 @@
         <v>213</v>
       </c>
       <c r="E260" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="F260" s="1" t="s">
         <v>804</v>
-      </c>
-      <c r="F260" s="1" t="s">
-        <v>805</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>216</v>
@@ -10720,10 +10717,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>226</v>
@@ -10732,16 +10729,16 @@
         <v>213</v>
       </c>
       <c r="E261" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F261" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="F261" s="1" t="s">
-        <v>807</v>
-      </c>
       <c r="G261" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>218</v>
@@ -10751,7 +10748,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>212</v>
@@ -10761,10 +10758,10 @@
         <v>213</v>
       </c>
       <c r="E262" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="F262" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="F262" s="1" t="s">
-        <v>810</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>216</v>
@@ -10778,7 +10775,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>212</v>
@@ -10788,10 +10785,10 @@
         <v>213</v>
       </c>
       <c r="E263" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="F263" s="1" t="s">
         <v>811</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>812</v>
       </c>
       <c r="G263" s="1" t="s">
         <v>216</v>
@@ -10805,7 +10802,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>212</v>
@@ -10815,24 +10812,24 @@
         <v>213</v>
       </c>
       <c r="E264" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F264" s="1" t="s">
         <v>814</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>815</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H264" s="1"/>
       <c r="I264" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>212</v>
@@ -10842,10 +10839,10 @@
         <v>213</v>
       </c>
       <c r="E265" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F265" s="1" t="s">
         <v>816</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>817</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>216</v>
@@ -10859,7 +10856,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>212</v>
@@ -10869,10 +10866,10 @@
         <v>213</v>
       </c>
       <c r="E266" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="F266" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="F266" s="1" t="s">
-        <v>819</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>216</v>
@@ -10886,7 +10883,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>212</v>
@@ -10896,10 +10893,10 @@
         <v>213</v>
       </c>
       <c r="E267" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F267" s="1" t="s">
         <v>820</v>
-      </c>
-      <c r="F267" s="1" t="s">
-        <v>821</v>
       </c>
       <c r="G267" s="1" t="s">
         <v>216</v>
@@ -10913,7 +10910,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>212</v>
@@ -10923,10 +10920,10 @@
         <v>213</v>
       </c>
       <c r="E268" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F268" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>823</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>216</v>
@@ -10940,7 +10937,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>212</v>
@@ -10950,16 +10947,16 @@
         <v>213</v>
       </c>
       <c r="E269" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="F269" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="F269" s="1" t="s">
-        <v>825</v>
-      </c>
       <c r="G269" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
@@ -10967,7 +10964,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>225</v>
@@ -10979,16 +10976,16 @@
         <v>213</v>
       </c>
       <c r="E270" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="F270" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="F270" s="1" t="s">
-        <v>827</v>
-      </c>
       <c r="G270" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
@@ -10996,7 +10993,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>212</v>
@@ -11006,16 +11003,16 @@
         <v>213</v>
       </c>
       <c r="E271" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F271" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="F271" s="1" t="s">
-        <v>829</v>
-      </c>
       <c r="G271" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
@@ -11023,7 +11020,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>225</v>
@@ -11035,16 +11032,16 @@
         <v>213</v>
       </c>
       <c r="E272" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F272" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="F272" s="1" t="s">
-        <v>831</v>
-      </c>
       <c r="G272" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
@@ -11052,7 +11049,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
       <c r="A273" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>212</v>
@@ -11062,16 +11059,16 @@
         <v>213</v>
       </c>
       <c r="E273" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="F273" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="F273" s="1" t="s">
-        <v>833</v>
-      </c>
       <c r="G273" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
@@ -11079,22 +11076,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
       <c r="A274" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E274" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="F274" s="1" t="s">
         <v>834</v>
-      </c>
-      <c r="F274" s="1" t="s">
-        <v>835</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>216</v>
@@ -11108,7 +11105,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
       <c r="A275" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>239</v>
@@ -11120,10 +11117,10 @@
         <v>213</v>
       </c>
       <c r="E275" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="F275" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="F275" s="1" t="s">
-        <v>838</v>
       </c>
       <c r="G275" s="1" t="s">
         <v>222</v>
@@ -11139,7 +11136,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
       <c r="A276" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>212</v>
@@ -11149,10 +11146,10 @@
         <v>213</v>
       </c>
       <c r="E276" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="F276" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="F276" s="1" t="s">
-        <v>840</v>
       </c>
       <c r="G276" s="1" t="s">
         <v>222</v>
@@ -11166,7 +11163,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
       <c r="A277" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>212</v>
@@ -11176,10 +11173,10 @@
         <v>213</v>
       </c>
       <c r="E277" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="F277" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="F277" s="1" t="s">
-        <v>842</v>
       </c>
       <c r="G277" s="1" t="s">
         <v>216</v>
@@ -11193,22 +11190,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
       <c r="A278" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E278" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="F278" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="F278" s="1" t="s">
-        <v>844</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>216</v>
@@ -11222,7 +11219,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
       <c r="A279" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>225</v>
@@ -11234,10 +11231,10 @@
         <v>213</v>
       </c>
       <c r="E279" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F279" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="F279" s="1" t="s">
-        <v>846</v>
       </c>
       <c r="G279" s="1" t="s">
         <v>216</v>
@@ -11251,7 +11248,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
       <c r="A280" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>212</v>
@@ -11261,16 +11258,16 @@
         <v>213</v>
       </c>
       <c r="E280" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="F280" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="F280" s="1" t="s">
-        <v>848</v>
-      </c>
       <c r="G280" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>218</v>
@@ -11280,7 +11277,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
       <c r="A281" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>239</v>
@@ -11292,17 +11289,17 @@
         <v>213</v>
       </c>
       <c r="E281" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="F281" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>850</v>
       </c>
       <c r="G281" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H281" s="1"/>
       <c r="I281" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
@@ -11312,7 +11309,7 @@
         <v>211</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>226</v>
@@ -11321,16 +11318,16 @@
         <v>213</v>
       </c>
       <c r="E282" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="F282" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="F282" s="1" t="s">
-        <v>852</v>
-      </c>
       <c r="G282" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
@@ -11338,7 +11335,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
       <c r="A283" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>212</v>
@@ -11348,16 +11345,16 @@
         <v>213</v>
       </c>
       <c r="E283" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="F283" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="F283" s="1" t="s">
-        <v>854</v>
-      </c>
       <c r="G283" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
@@ -11365,7 +11362,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
       <c r="A284" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>225</v>
@@ -11377,10 +11374,10 @@
         <v>213</v>
       </c>
       <c r="E284" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F284" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>856</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>216</v>
@@ -11396,7 +11393,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
       <c r="A285" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>225</v>
@@ -11408,16 +11405,16 @@
         <v>213</v>
       </c>
       <c r="E285" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="F285" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="F285" s="1" t="s">
-        <v>858</v>
-      </c>
       <c r="G285" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
@@ -11425,7 +11422,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
       <c r="A286" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>239</v>
@@ -11437,10 +11434,10 @@
         <v>213</v>
       </c>
       <c r="E286" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="F286" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>858</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>216</v>
@@ -11454,7 +11451,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
       <c r="A287" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>239</v>
@@ -11466,24 +11463,24 @@
         <v>213</v>
       </c>
       <c r="E287" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="F287" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>860</v>
       </c>
       <c r="G287" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H287" s="1"/>
       <c r="I287" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
       <c r="A288" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>239</v>
@@ -11495,10 +11492,10 @@
         <v>213</v>
       </c>
       <c r="E288" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="F288" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>858</v>
       </c>
       <c r="G288" s="1" t="s">
         <v>216</v>
@@ -11512,7 +11509,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
       <c r="A289" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>239</v>
@@ -11524,10 +11521,10 @@
         <v>213</v>
       </c>
       <c r="E289" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F289" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>863</v>
       </c>
       <c r="G289" s="1" t="s">
         <v>216</v>
@@ -11541,7 +11538,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
       <c r="A290" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>239</v>
@@ -11553,16 +11550,16 @@
         <v>213</v>
       </c>
       <c r="E290" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="F290" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="F290" s="1" t="s">
-        <v>865</v>
-      </c>
       <c r="G290" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
@@ -11570,7 +11567,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
       <c r="A291" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>239</v>
@@ -11582,10 +11579,10 @@
         <v>213</v>
       </c>
       <c r="E291" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="F291" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>858</v>
       </c>
       <c r="G291" s="1" t="s">
         <v>216</v>
@@ -11594,14 +11591,14 @@
         <v>229</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
       <c r="A292" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>239</v>
@@ -11613,10 +11610,10 @@
         <v>213</v>
       </c>
       <c r="E292" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="F292" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>867</v>
       </c>
       <c r="G292" s="1" t="s">
         <v>216</v>
@@ -11630,7 +11627,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
       <c r="A293" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>239</v>
@@ -11642,10 +11639,10 @@
         <v>213</v>
       </c>
       <c r="E293" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="F293" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="F293" s="1" t="s">
-        <v>869</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>222</v>
@@ -11659,7 +11656,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
       <c r="A294" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>239</v>
@@ -11671,10 +11668,10 @@
         <v>213</v>
       </c>
       <c r="E294" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="F294" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="F294" s="1" t="s">
-        <v>858</v>
       </c>
       <c r="G294" s="1" t="s">
         <v>216</v>
@@ -11683,14 +11680,14 @@
         <v>229</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
       <c r="A295" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>225</v>
@@ -11702,10 +11699,10 @@
         <v>213</v>
       </c>
       <c r="E295" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="F295" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="F295" s="1" t="s">
-        <v>871</v>
       </c>
       <c r="G295" s="1" t="s">
         <v>216</v>
@@ -11719,28 +11716,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
       <c r="A296" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E296" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F296" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="F296" s="1" t="s">
-        <v>873</v>
-      </c>
       <c r="G296" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
@@ -11748,10 +11745,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
       <c r="A297" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>226</v>
@@ -11760,10 +11757,10 @@
         <v>213</v>
       </c>
       <c r="E297" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="F297" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="F297" s="1" t="s">
-        <v>858</v>
       </c>
       <c r="G297" s="1" t="s">
         <v>216</v>
@@ -11777,7 +11774,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
       <c r="A298" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>212</v>
@@ -11787,10 +11784,10 @@
         <v>213</v>
       </c>
       <c r="E298" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="F298" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="F298" s="1" t="s">
-        <v>875</v>
       </c>
       <c r="G298" s="1" t="s">
         <v>216</v>
@@ -11804,7 +11801,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
       <c r="A299" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>212</v>
@@ -11814,24 +11811,24 @@
         <v>213</v>
       </c>
       <c r="E299" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="F299" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="F299" s="1" t="s">
-        <v>877</v>
       </c>
       <c r="G299" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H299" s="1"/>
       <c r="I299" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
       <c r="A300" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>212</v>
@@ -11841,24 +11838,24 @@
         <v>213</v>
       </c>
       <c r="E300" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="F300" s="1" t="s">
         <v>878</v>
-      </c>
-      <c r="F300" s="1" t="s">
-        <v>879</v>
       </c>
       <c r="G300" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H300" s="1"/>
       <c r="I300" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
       <c r="A301" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>212</v>
@@ -11868,16 +11865,16 @@
         <v>213</v>
       </c>
       <c r="E301" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="F301" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="F301" s="1" t="s">
+      <c r="G301" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H301" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="G301" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H301" s="1" t="s">
-        <v>882</v>
       </c>
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
@@ -11885,7 +11882,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
       <c r="A302" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>225</v>
@@ -11897,39 +11894,39 @@
         <v>213</v>
       </c>
       <c r="E302" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="F302" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="F302" s="1" t="s">
-        <v>884</v>
       </c>
       <c r="G302" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H302" s="1"/>
       <c r="I302" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
       <c r="A303" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E303" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="F303" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="F303" s="1" t="s">
-        <v>886</v>
       </c>
       <c r="G303" s="1" t="s">
         <v>216</v>
@@ -11943,7 +11940,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
       <c r="A304" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>212</v>
@@ -11953,11 +11950,11 @@
         <v>213</v>
       </c>
       <c r="E304" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="F304" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="F304" s="1" t="s">
-        <v>888</v>
-      </c>
       <c r="G304" s="1" t="s">
         <v>216</v>
       </c>
@@ -11965,14 +11962,14 @@
         <v>217</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
       <c r="A305" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>212</v>
@@ -11982,16 +11979,16 @@
         <v>213</v>
       </c>
       <c r="E305" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="F305" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="F305" s="1" t="s">
+      <c r="G305" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H305" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="G305" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H305" s="1" t="s">
-        <v>891</v>
       </c>
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
@@ -11999,7 +11996,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
       <c r="A306" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>212</v>
@@ -12009,26 +12006,26 @@
         <v>213</v>
       </c>
       <c r="E306" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="F306" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="F306" s="1" t="s">
-        <v>893</v>
-      </c>
       <c r="G306" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
       <c r="A307" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>212</v>
@@ -12038,16 +12035,16 @@
         <v>213</v>
       </c>
       <c r="E307" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="F307" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="F307" s="1" t="s">
-        <v>895</v>
-      </c>
       <c r="G307" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
@@ -12055,7 +12052,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
       <c r="A308" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>225</v>
@@ -12067,16 +12064,16 @@
         <v>213</v>
       </c>
       <c r="E308" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="F308" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="F308" s="1" t="s">
-        <v>897</v>
-      </c>
       <c r="G308" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
@@ -12084,10 +12081,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
       <c r="A309" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>226</v>
@@ -12096,10 +12093,10 @@
         <v>213</v>
       </c>
       <c r="E309" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="F309" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="F309" s="1" t="s">
-        <v>899</v>
       </c>
       <c r="G309" s="1" t="s">
         <v>216</v>
@@ -12113,7 +12110,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
       <c r="A310" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>225</v>
@@ -12125,26 +12122,26 @@
         <v>213</v>
       </c>
       <c r="E310" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="F310" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="F310" s="1" t="s">
-        <v>901</v>
-      </c>
       <c r="G310" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
       <c r="A311" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>225</v>
@@ -12156,10 +12153,10 @@
         <v>213</v>
       </c>
       <c r="E311" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="F311" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="F311" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="G311" s="1" t="s">
         <v>216</v>
@@ -12175,36 +12172,36 @@
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
       <c r="A312" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E312" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="F312" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="F312" s="1" t="s">
-        <v>905</v>
       </c>
       <c r="G312" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H312" s="1"/>
       <c r="I312" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
       <c r="A313" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>212</v>
@@ -12214,16 +12211,16 @@
         <v>213</v>
       </c>
       <c r="E313" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="F313" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="F313" s="1" t="s">
-        <v>907</v>
-      </c>
       <c r="G313" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
@@ -12231,7 +12228,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
       <c r="A314" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>212</v>
@@ -12241,24 +12238,24 @@
         <v>213</v>
       </c>
       <c r="E314" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F314" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="F314" s="1" t="s">
-        <v>909</v>
       </c>
       <c r="G314" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H314" s="1"/>
       <c r="I314" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
       <c r="A315" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>212</v>
@@ -12268,16 +12265,16 @@
         <v>213</v>
       </c>
       <c r="E315" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F315" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="F315" s="1" t="s">
-        <v>911</v>
-      </c>
       <c r="G315" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
